--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/12_Balıkesir_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/12_Balıkesir_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D448DC6A-9846-46D0-978B-F55C8D9C9E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D84A00CD-EE50-4DC4-B685-65CEFB8903CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="668" xr2:uid="{FFAD002A-C6D0-42FF-8EF6-FBB7E5FB6F7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{07890C31-6BA9-4502-870D-ABB75686BA0A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="115" r:id="rId1"/>
@@ -1000,13 +1000,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{0A786884-04DD-444B-B5A7-D800A0ADF387}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{8A03D34D-6751-41FE-B615-6BC27DF52D87}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{B702E527-69B2-4B1B-9608-787E81D19D9D}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{EC276123-6F30-4DC9-BCDC-C20FE3739EE4}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{AA9C458B-3CA8-485F-88F8-D23FC4109117}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{531C6DDE-0C11-43E7-B740-9296ED2BE0B4}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{C71E1201-5D43-46BA-8638-8A264E91FE8F}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{8F5F867A-0EE5-43F9-B309-043DA49E7704}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{ED17199C-A28B-442E-A032-B2BDA017D1E3}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{62C42D8A-CA65-4BE2-8107-BF0204F2CF2F}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{C695F2D9-BE0F-4918-85A5-282DDEB39AF1}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{6E7ACF48-C53A-4BAA-9468-336C945A2107}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{FF430E2B-10B2-4266-BFBB-D77A33BF3570}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{08E94DC1-1746-44E1-9A21-B4BB0AEB7961}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1376,7 +1376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8401582A-7914-437D-A1F6-247256BC2B00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D778C3F-7CC4-4645-8170-078980888932}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2682,17 +2682,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A19C6597-2B75-42C0-9CB3-CB9A70154B14}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{69062E9A-1272-461F-88F5-4AC90B130292}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AF51792C-6EB1-413C-A08B-4025D9B07F31}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{183DDEB4-DD10-43C3-A878-D337C30B455F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2FE32C13-0921-4BBA-B08F-2BB11B1BF0CB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FFB0A1DC-29E5-4F8E-A4C4-3089ACA09882}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{115E737A-8288-4DFA-ACBF-344B6638FADA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A7C9E22E-A291-4B07-8F70-9A96513FEA0E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6B589D5C-BE09-4661-92E3-A3470E74D0E4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{79F08C50-0778-439E-B155-6A22B5579599}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{48051E20-4FDE-491C-AB61-3AE9B7E64344}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C00CF350-3B4B-4FE5-A5B8-516643174A5D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0289A19C-F7A1-42C2-BAA0-DF425B93E7A4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E0F50877-34FE-464E-8275-7EEBF3EB1590}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6FF80387-A8A1-4E04-B0D7-31F21A31E2D7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D23CD16B-518D-440D-8E5E-F9897B64AF45}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C2516FFB-F5EF-478D-888D-AE931D0C6711}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1A21208A-A4BE-442D-8A37-C758CA1E414B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1E95D807-A47A-4A5D-B120-C77DE0877E29}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{81C4E5BE-A8BB-471F-81AE-5E8DD26C21D1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5B89B6CF-E10B-406A-86E0-597E4C491E1F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{68E030A8-DF4A-488C-8A8D-133608A114BF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2705,7 +2705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95C6B88-0DA0-4A9D-ABAA-51B7A5E8B0D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FD525E-9331-4CD5-AEC4-7313AD267780}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -4007,17 +4007,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E2CFF0AE-9B99-4B97-9049-C5DEE9DD3D85}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C261F9A2-D688-40FC-AF38-99A0E169AAFF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{97E33582-1812-4A2D-A70F-3262FB767A50}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F4EF0EFB-04DF-4976-B62F-5D9484F60BA2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{69665A0E-2B13-44F9-A6B1-5B17F7B168C0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0092ED16-5165-414C-98C9-06C7C62AD5AE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F792B5B0-3B1B-4B0B-83F2-00B5EDA056FE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B1640CFE-2776-41EB-886D-7D55699B5987}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3F2675E4-55B7-4AE4-83AD-ECF08770EDE9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BF011FCB-3BBA-4F6F-B80F-9A2049C384CE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{38883334-CE29-4BB8-B31B-79CE56D98E9A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5AEE8337-DA4A-4A40-A744-E3DAD6F1ED39}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3065C979-6359-4201-8D29-B45585468200}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FAEED811-7444-4394-AE51-43CCD9ED5BA5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EC7168E4-FE90-46BE-8263-6DA9D1E6F3BB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D103181A-1428-4539-AE25-879967216EE5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{05B3A299-E7B7-4C64-B179-ACCED1585D92}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EAA405DC-4270-4C4A-ABEE-22A17681F763}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{318BE78B-5A53-4144-A9D5-C35A8582A44A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BA9AC8D2-FCC7-43F3-80F2-9165320C1927}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EA654F22-A543-4DD1-920B-AB939F76441B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5D3BF943-9865-41B9-A705-463EECA93D0C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4030,7 +4030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EC305F-1D2E-4651-9B08-DC3D67EE2DB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C202471E-B4D9-4A34-9934-889158150BDC}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5328,17 +5328,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6736EA8E-A2B2-4519-977E-4C65FA6B61C5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC9D491B-D519-4B20-90A0-29737600B658}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E8445203-ECDF-45DD-95B4-DD4E0D252704}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A09F140A-A5E7-4E6D-B53D-13CCED547E1A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B1B5C874-D41B-4404-9D75-BD8B9464C222}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4B9E6327-4F52-4256-BC86-7BEEE7E13A9E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9E07D17-8BC2-4B1B-AAD5-F2947500A9BB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2EC77B21-10AF-4E51-8B71-CA7CB3B3FF78}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{657C2959-AEF7-4371-8F6D-CF3DE9F67EDB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8EB3A391-ED92-477E-A5EF-D3EB3E4E1081}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{89EE6FD2-EA8D-4962-A562-37030BD28C4C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2EA8899A-F9A0-4A5F-878B-6086BD98736F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8B757BE7-73E1-4E1E-BB94-DCEB01B25F1F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D0DDD1FC-03C9-4019-B93E-35147A5D5148}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{288C2245-C453-4B75-B387-6EA1242C34C2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6CCAA828-5E04-43EE-AF09-58DB2F2F56BE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4522B6D9-24E5-460C-B56F-607E80AA52B9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{51A7D8D2-A074-4346-AEB5-8A4127089A3E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{167472DD-EC9C-43C6-9096-BA33D080830F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{126167B1-8833-4770-92A7-1D8644A6AFAA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9C3689FE-281B-48A7-A483-C919194D4F07}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{918015F4-001E-493E-97DA-44896D0729AC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5351,7 +5351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7567A0FE-2D78-4BD3-B727-F20DA3F433D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35459E13-3252-4B61-94A4-10BB9581CA88}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6643,17 +6643,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B3E4FBBE-F167-40BD-8AFD-C92162BD78FF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2CA17CCA-8D66-49DC-B882-F2A2BC6AF75A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4BE2A512-5ED2-4F15-9C39-2A016BF194C7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E675A4EE-B4C9-4221-8BA4-C0CA10AF2AE8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6D812746-4F02-400F-9922-93056725B16F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F853298D-C641-4E76-BD02-8D0212148756}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DF69694E-1BB4-4A5C-A9FA-7E768B933998}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0DEAFF72-472F-4BD9-AFA3-65CE0C5891D1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{116346AF-35F3-4719-A37B-A0BD5923474A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CCAECA6C-8589-47D4-A62F-6C26DCA9C7B8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C1440B39-1AAF-404B-B8D9-3E294C47941B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{74E69B81-76E2-4035-9639-EAAC702C297C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D621619E-5DB5-4A30-AEAE-BBF8A4DC52C2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4055F1D8-C53C-4296-813A-8AEDB076AAB0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9741CD9A-8578-49A4-8A90-DD234351ED51}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1216B001-E9EC-48B4-B92C-57C4AB6A3E26}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{661ABB0B-6D21-4B0E-83BB-11910A5A5523}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AD48FCAB-593A-49AC-8329-8DDF313709B0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BEF9C9F5-6750-4089-B183-904C40A9E5B4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F6186D7B-3D18-47AA-8AED-4D8E92C1267C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3E78422C-26ED-4C90-A009-5C59D1CEEC06}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{80157A00-81A3-4D57-98FE-B9E4CE803B08}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6666,7 +6666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92A07C3-763B-4E83-8432-262F720151EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D285B48-C8BC-43E3-8DFC-05B880B93B8E}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7967,17 +7967,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C3BAC660-DE69-4DAC-A77B-D794756AF73F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{97F0BCFF-4191-43C6-9E32-1173E5B09FCF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AB4D683F-C672-47C2-8A51-6D7FAAFEEB54}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9CC4BF17-798E-47A1-9279-D53870706DAB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E3FB5D50-CDCF-4D4A-B924-F72628B9C538}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F9BADADF-209F-4305-A16A-BFD702E75548}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C11DECFA-83F0-4217-AF1C-CA8146784B22}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8104FA42-31E7-45A4-929A-1CEC5AD507D0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{10D6A8DF-CB83-49A7-907E-5DFF04EBC5B2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4A227265-4384-4096-84EF-A0EDBB524638}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0454CA96-928F-4D98-8984-E067870E03F4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C3B1164C-AE71-44B1-B8B0-9C6F99D4FDA9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1B6F9308-61EE-485F-9FF4-BDBD0A6867AE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D9D2CE7B-CC15-4CE8-B215-BF045D0A29B9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C527D8EA-03CC-4F3A-9231-D7F9EA2C644B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6C0F4779-90A4-4E11-B57C-12C2694983FE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5DD0C4D5-B28E-4566-8280-BA1AA9E16397}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A6EF46DA-F95B-4805-BC23-837B9C538989}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{312FACBA-5772-4D2E-81C8-36058FD306AC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0CF4FCF9-75CF-4F72-9184-8EF911A8BCE7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3BD015B8-DDF9-4995-842D-F14D9D4A6346}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3C90E729-909D-4726-BE32-05FAB6E4A1A3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7990,7 +7990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1349AADC-8334-4479-8A76-9BC2896A0D2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52D71B4-9629-47E4-A718-835EC40ECA06}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9291,17 +9291,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{95A4F4F5-951C-4F5D-B851-76BD34387A3B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{32261A5F-B51F-4C90-BCB8-04CD22337FAC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7E890785-8E48-437D-A5AA-D3166A9435B2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F8CECFD9-DF5D-4023-934F-FA809032CD22}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{75154E0D-F851-419B-BCBE-8DE3A106BBA8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B7B663D3-ACCC-475C-AFE8-D36ED4BB145F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7B0D09C1-310A-47D5-926E-010243AA73D8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{27FC989D-FEB7-4F6C-AEBF-9793DEF59228}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E50F2C0F-541B-4DFC-8726-98F91F9D5A96}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BB8D04BA-0290-4FE9-8742-E191037BE410}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{02877782-9DAB-4A27-A582-016E7DA9E7E1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0B339CC1-1DFB-4E47-B70A-890B0B99EE69}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D1017244-1DF1-448D-A449-3C711E1A3065}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{15445EB1-386F-471B-BC93-9F538D7DECBA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{716833F5-EDAF-4582-B786-BC965E8AF188}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AC1C81EB-5D49-44A4-B6D9-7238D99D9675}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1A669E61-E5DC-41D7-94C2-796D06E71178}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{90F257CF-2FB0-41C1-98CD-D3DC4FE468D0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D1242CAB-DCE1-48F5-B83B-98D9C257BE59}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{AB5EB9CC-F0C5-449B-8015-4BC1EF1AEF85}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DE9EE330-5748-46AC-BE7B-CCEAC41EDECE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{94A26323-18D1-4E05-B23B-C3ECB087335E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9314,7 +9314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDCFA716-2E5A-4E0F-BDB5-F14229891D52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABE54BB-C022-4DA9-A8E7-31039C0A8101}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10615,17 +10615,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E03B4E23-CCB3-48A8-8204-1A05F1F57DF2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{11BA1426-FE4F-4530-9440-D426D95A8146}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8F28F64F-0092-4617-8D9D-0553CEAF6AAD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{63305F29-325E-43F5-8EC8-BE1EE35923E0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CC1FCDC1-B03E-4582-853E-86C532D5A4D4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8A6C8B85-3123-4EC3-A125-A160970C52C1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4E899685-FF85-44A9-8654-CDDF9AD16DA1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6A34464C-C2D5-4594-A026-3AF2AE72A0BA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EE4DB306-8534-4A85-8645-B379FE77776C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7D3A0F93-0E04-47B0-B539-DF344B9E3960}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{45453A37-7E6B-487E-9870-9BA2BDF37E8B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EE6854BB-799A-454E-8850-2F4054D2DE71}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2E82365D-7893-4762-A2FA-C7BE0B78DA5E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{89EE6430-BE1D-44B2-8F1D-F0DD8A7E0F04}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D29E3CC4-6266-42F3-9F4F-06C3E13F7241}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4B482C26-1818-4566-A562-DE9AEC011C87}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B79FB253-EC06-4057-9280-9A5EA18BBFA4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A5FA012C-C55D-4991-8156-D09A5F4742C2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8D579250-3BBC-4553-BE97-F7C542D4A148}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{09E6A05B-CBF0-4092-956E-3F0E3E809823}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2273FDA6-52CA-49EE-87BB-6A95ADB8B4C1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{23ACE2ED-EE0C-43A9-9C36-313AAD200F0E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10638,7 +10638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E52C3F-6D66-4534-82B2-032A3262AF38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7E7F6F-B21A-4F8E-BC92-97F782EC4E23}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11939,17 +11939,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2ED28003-BA55-48F3-983F-187A9613F140}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B4CC7DCE-2369-4EBC-A702-9433CA6635DF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E0D233DD-68A6-4DFA-B131-17F8DAC1E144}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F9E886B2-19BB-420A-847B-469565BDE213}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D4B2E3F0-C0D6-434F-9FB0-1875B46BE1A1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C506FBC8-1486-4359-AFF9-1FF4ABE5ED6A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E5FCC044-4D1B-4B58-9292-F00BE20DCED1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0E6DB86A-7539-4304-B48A-4A013A3592F3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7232BC2F-5676-459A-BBB9-ECE8E28A71FF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{352CB895-EBF4-49B6-A7FB-F862BF968A95}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D9D5E053-1D87-4391-9667-60571BDE29E8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8F65111A-487B-4CB6-8C7F-84F83F5B3D49}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{355EC8AC-1F6F-4436-B521-F8BE6112D28A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7F779047-7548-4B96-ABA9-42290EBC1076}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1C907F51-3803-45BF-9E32-9FD98342DB5C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{975499A4-33D6-4FC6-A546-6C97B13C5BEC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5606F3B7-28D9-424C-A2CF-D9E5F2D9DCE4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1F172C53-69B3-46AA-85C8-9743071C9F4A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{93BD34D8-264B-40A0-B255-DCF632366605}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{586F0605-6FD3-4C54-AA78-2DF65600A94C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8475B1B9-0870-45D1-AC71-AA85C8A8B18D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B114DD2C-8980-4650-961B-13CB0E04D5CB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11962,7 +11962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB6ED99-75C1-4FBE-88FF-06401F4FC9BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9635AD6C-C187-4EA7-BC88-3A648490FA74}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13263,17 +13263,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A0F33BCD-4627-4194-A578-4910B628B040}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4905E10F-A598-4800-B5A6-B6ED76488736}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A30BB64A-5566-44A9-A8D3-ED6E329C4335}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A62A2D77-E400-4768-9221-DE8F492CC67E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2BD3AC95-9965-4082-8CD4-05F6B33B530C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D65355AF-47E5-4300-BE04-8FCD62007F5D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D3E5E03C-78D0-4475-97B9-D91799B88131}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4AA31952-DBB7-4BC9-AD93-1C1AD5501992}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{31F37949-3893-432F-B1C0-4B4B78F251AC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6293296F-12AF-4989-A8E7-4A9922779106}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2394648D-4A80-4DE2-A321-A6E8A3988B31}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F97448FD-83C4-47BA-AFB2-6389A99351A6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4223E5B8-15F3-4716-AEE0-A841FA3DA95A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7AED3B8D-8089-44C6-9541-5C79F3A94F13}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{550357F0-C5A1-435C-8A0B-F24874F364C0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9762F6EF-3578-461D-ADE5-2CE4C2F3F959}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E9FBC068-DF44-452F-9CB2-A955C7FEA664}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{766631CC-1F78-4FBC-A87E-29825B0F9392}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1E6EC69E-046B-4589-B9B6-71287C18E4AF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{57475F05-7881-4635-A746-25634B2C6F26}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{77A05719-6885-408F-A747-897C4DE82A1C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8017DD12-41AF-473E-946C-3205FD18BEE6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13286,7 +13286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9FD853-7F1D-46D8-BC61-7C10DDA5493D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F520BD35-41DC-43F1-B009-D869A1C4202C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14587,17 +14587,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F032D408-6264-45F5-B3A0-4409890E6DE2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EE51FB6B-1D12-4A7D-B18E-A06D2AAAFC5B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B2D5BE2D-FF09-49C3-901A-8450EE04C6C1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A4F52F95-FBF8-44C1-8A7A-DEA6162C6E53}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0B840FB6-51A1-446A-BDC1-3B11E0CDFC9E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{83FACCA7-C729-4C9F-BE01-F45ED2F76560}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{905CD2EB-574B-40B8-93F0-CBC96971FDD0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9D8672C6-DE0C-47E0-8B61-6E8CEC0EB43D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{25C5159D-9F76-4D90-8B29-1FA2A52D2BFC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{538D5809-4270-457D-8884-B4C71A306BF7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{94FDFF23-20BA-427C-B757-DBEA86FFA9CA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E1195FE4-36A3-431C-B4E4-A67CFFD66380}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A89C9E91-BD64-47A1-9D27-E67EA04A891F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4BCAB9CD-9D18-47E7-BE08-1FF1CC63B8F1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{87FC406C-08D1-435A-8233-22817150FAC1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CBC5189C-18A1-4D6A-BB29-C8D7566DADFA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5077D7CF-BE07-4C5A-9326-AC70FF3C9FA4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{015B6A0F-97E9-42CB-AFB5-E961ACD26B17}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C04E35AE-43B3-49DE-BEFD-504872DF16D1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{07DCC32A-7677-4577-BDE4-B09D5D7EDFD8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{209BB297-5674-49A6-9A8F-8EC358F5FF7C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8D32C914-DFE5-410E-AE94-054F9C3FA0C1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14610,7 +14610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E337DE74-43D1-4BD7-A4DF-DAF44C92E6BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17E3143-C434-40A3-9DCF-D6BBD08299AA}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15912,17 +15912,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{499D8D8B-663E-4ADD-B755-66F5C367C5D2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2FA395CA-243B-4B59-B0BE-38EC903E9C41}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{58D60C18-8EFD-49EA-A130-A9068439DD72}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3BFF9D96-BE2F-4017-A8E6-9916A15768A1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E00B4CDA-45CC-4B71-9A92-D543257638F7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8E8BC148-BEBA-4841-AC16-F4D85FB57241}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{80E87616-6EFD-46B9-A6AE-D08AC11005A2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{12C379E4-5C9B-42F9-B1C1-AB471982C41C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0096B55E-6FBE-44D3-9A60-9DDC3C34CEB0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{164BE063-13C2-4EC3-97F7-B24C9A49D522}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D45DFBD2-97CB-47C7-A626-E8817F42776E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B0E48874-2A12-4B55-8123-A519457CE036}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A55E5528-D314-4B26-8C9A-B954328FACAA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F28D5D90-4B7F-4CC6-BBC7-3B0E7CFFF014}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1D5A2E4C-D44D-4B10-937C-C1264DA121D2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{84714E56-04D4-47AA-8290-4ACFAFA2ADB8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{967587C7-D17B-4548-BC7A-CADC81939B44}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6D632CFA-815A-4CD8-B840-0E4970754806}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{96753A98-5B06-4896-965B-1E0E28045A59}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{009788CE-EAC3-4EA4-8106-2212CB4208EF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{00574B7F-1E56-43C4-A0C3-377213A49ED2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA4CB827-47D7-4A1A-82D5-EF9A5A734755}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15935,7 +15935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F0DBE9-642C-4FB9-81C0-4339BAAF673E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADB85DF-59A6-400E-BAAB-9011FAE3B147}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -17237,17 +17237,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B822167B-5198-4E29-9B0F-B1D27EB5E92E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{19E6F4C3-D6C5-4942-BD94-EB057A89911F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{66EEDC85-B636-4E09-A534-3288ADB69D52}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E4A88156-542A-4C83-AE4E-51B8EA0E00B5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ADACCFF0-9364-4794-ABFD-5B9F28D5B598}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C537EE4F-AE30-464D-AB07-BE0DDF1B0EC9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD545B2F-E329-4687-9149-45EB8F6564B2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8DADB009-EE22-4A2A-A3F2-3DA6C33642F6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CAAB4978-196A-448D-88EE-5A387B66838B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1A8B464E-1337-446A-B330-09DA92AC2B92}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{35612C7E-76E3-4B6C-83E1-81430B354334}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F2746BD0-95CB-4196-A2B7-E8680E1A008B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5BC00A96-B447-41E2-AEB0-58F762CD7A93}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7932B88E-7F5B-4D84-BB0B-27BC8CD24C79}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9E135934-9593-4739-8F55-B49FEFD92E82}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FD6EBD5F-50B8-4C65-8AC2-254880C2FD76}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3EF4A929-3EA2-47DD-A056-9E09A529BFA8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{323287C0-CD6E-461C-BF02-173BEC134AF9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{567F0277-FFD2-41E6-8109-4AD89AD3C1C2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5AE82A04-E6F6-4B83-94B0-CC602EF1DC21}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B4D4C125-63C0-4C30-A2A1-CD8D0F02E867}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C4F92DA6-61EF-4A82-B4A6-32269EE8BAB8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
